--- a/src/storage/app/excel-exporter/templates/absent.xlsx
+++ b/src/storage/app/excel-exporter/templates/absent.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Báo cáo NV đang nghĩ phép" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Báo cáo NV đang nghỉ phép" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
